--- a/data/wa_interface.xlsx
+++ b/data/wa_interface.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamis\Projects\capstone\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4952EF-DB18-4FF4-9B3E-F71261A37833}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE184E88-B1B1-40F4-AECD-11CACC0EFB83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="79">
   <si>
     <t>School</t>
   </si>
@@ -49,218 +49,221 @@
     <t>https://webadvisor.alamancecc.edu/WA/WebAdvisor?TOKENIDX=7905262194&amp;type=M&amp;constituency=WBST&amp;pid=CORE-WBST</t>
   </si>
   <si>
+    <t>ONLIN</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Blue Ridge Community College</t>
+  </si>
+  <si>
+    <t>https://online.blueridge.edu/WA/WebAdvisor?TOKENIDX=8077699295&amp;type=M&amp;constituency=WBST&amp;pid=CORE-WBST</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Caldwell Community College and Technical Institute</t>
+  </si>
+  <si>
+    <t>https://webadvisor.cccti.edu/WebAdvisor/WebAdvisor?TOKENIDX=1828158306&amp;type=M&amp;constituency=WBAP&amp;pid=CORE-WBAP</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Cape Fear Community College</t>
+  </si>
+  <si>
+    <t>https://reg.cfcc.edu/WebAdvisor/WebAdvisor?TOKENIDX=3729225402&amp;type=M&amp;constituency=WBST&amp;pid=CORE-WBST</t>
+  </si>
+  <si>
+    <t>WWW</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Central Carolina Community College</t>
+  </si>
+  <si>
+    <t>https://webadvisor.cccc.edu/WebAdvisor/WebAdvisor?TOKENIDX=4782923678&amp;type=M&amp;constituency=WBAP&amp;pid=CORE-WBAP</t>
+  </si>
+  <si>
+    <t>DIST</t>
+  </si>
+  <si>
+    <t>Cleveland Community College</t>
+  </si>
+  <si>
+    <t>https://webadvisor.clevelandcc.edu/WebAdvisor/WebAdvisor?TOKENIDX=5232704816&amp;type=M&amp;constituency=WBAP&amp;pid=CORE-WBAP</t>
+  </si>
+  <si>
+    <t>OC</t>
+  </si>
+  <si>
+    <t>Coastal Carolina Community College</t>
+  </si>
+  <si>
+    <t>https://webadvisor.coastal.edu/WebAdvisor/WebAdvisor?TOKENIDX=27416195&amp;type=M&amp;constituency=XWBST&amp;pid=CORE-XWBST</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>3rd td</t>
+  </si>
+  <si>
+    <t>College of the Albemarle</t>
+  </si>
+  <si>
+    <t>https://mywebadvisor.albemarle.edu/WebAdvisor/WebAdvisor?TOKENIDX=8077699295&amp;type=M&amp;constituency=WBAP&amp;pid=CORE-WBAP</t>
+  </si>
+  <si>
+    <t>Craven Community College</t>
+  </si>
+  <si>
+    <t>https://webadv-prod.cloud.cravencc.edu/WebAdvisor/WebAdvisor?TOKENIDX=7786195007&amp;type=M&amp;constituency=WBAP&amp;pid=CORE-WBAP</t>
+  </si>
+  <si>
+    <t>Davidson County Community College</t>
+  </si>
+  <si>
+    <t>https://wa.davidsonccc.edu/WebAdvisor/WebAdvisor?TOKENIDX=2125393435&amp;type=M&amp;constituency=WBAP&amp;pid=CORE-WBAP</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>Durham Technical Community College</t>
+  </si>
+  <si>
+    <t>https://webadvisor.durhamtech.edu/WebAdvisor/WebAdvisor?TOKENIDX=3263068204&amp;type=M&amp;constituency=WBAP&amp;pid=CORE-WBAP</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>Edgecombe Community College</t>
+  </si>
+  <si>
+    <t>https://wa.edgecombe.edu/WebAdvisor/WebAdvisor?TOKENIDX=1102268694&amp;type=M&amp;constituency=WBAP&amp;pid=CORE-WBAP</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Gaston College</t>
+  </si>
+  <si>
+    <t>https://webadvw.gaston.edu/WebAdvisor/WebAdvisor?TOKENIDX=6620864838&amp;type=M&amp;constituency=WBST&amp;pid=CORE-WBST</t>
+  </si>
+  <si>
+    <t>may have to select 2 location options to get online (sync and async) - use VIRT for async</t>
+  </si>
+  <si>
+    <t>Guilford Technical Community College</t>
+  </si>
+  <si>
+    <t>https://webadvisor.gtcc.edu/</t>
+  </si>
+  <si>
+    <t>**** seems to be down, may have to parse pdf</t>
+  </si>
+  <si>
+    <t>Johnston Community College</t>
+  </si>
+  <si>
+    <t>https://webadvisor.johnstoncc.edu/WebAdvisor/WebAdvisor?TOKENIDX=2374134113&amp;type=M&amp;constituency=WBAP&amp;pid=CORE-WBAP</t>
+  </si>
+  <si>
+    <t>Lenoir Community College</t>
+  </si>
+  <si>
+    <t>https://wa.lenoircc.edu/WebAdvisor/WebAdvisor?TOKENIDX=2084978637&amp;type=M&amp;constituency=WBAP&amp;pid=CORE-WBAP</t>
+  </si>
+  <si>
+    <t>Nash Community College</t>
+  </si>
+  <si>
+    <t>https://nccwebadvisor.ad.nashcc.edu/WebAdvisor/WebAdvisor?TOKENIDX=3017553092&amp;type=M&amp;constituency=WBAP&amp;pid=CORE-WBAP</t>
+  </si>
+  <si>
+    <t>ONLIN and VTL</t>
+  </si>
+  <si>
+    <t>Pamlico Community College</t>
+  </si>
+  <si>
+    <t>https://webadvisor.pamlicocc.edu/WA/WebAdvisor?TOKENIDX=7418765327&amp;type=M&amp;constituency=WBAP&amp;pid=CORE-WBAP</t>
+  </si>
+  <si>
+    <t>Sandhills Community College</t>
+  </si>
+  <si>
+    <t>https://webadvisor.sandhills.edu/WebAdvisor/WebAdvisor?TOKENIDX=4865650381&amp;type=M&amp;constituency=WBAP&amp;pid=CORE-WBAP</t>
+  </si>
+  <si>
+    <t>Wake Technical Community College</t>
+  </si>
+  <si>
+    <t>https://webadvisor.waketech.edu/</t>
+  </si>
+  <si>
+    <t>**** 517 courses and more sections to extract, may require intervention</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>Wayne Community College</t>
+  </si>
+  <si>
+    <t>https://wow.waynecc.edu/WebAdvisor/WebAdvisor?TOKENIDX=3640761354&amp;type=M&amp;constituency=WBAP&amp;pid=CORE-WBAP</t>
+  </si>
+  <si>
+    <t>ADDITIONAL NOTES:</t>
+  </si>
+  <si>
+    <t>some schools group online classes with "Off Campus" locations so this will have to be accounted for when parsing html source files</t>
+  </si>
+  <si>
+    <t>Missing GUILFORD</t>
+  </si>
+  <si>
+    <t>51 pages; ssl error?</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
-    <t>ONLIN</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>Blue Ridge Community College</t>
-  </si>
-  <si>
-    <t>https://online.blueridge.edu/WA/WebAdvisor?TOKENIDX=8077699295&amp;type=M&amp;constituency=WBST&amp;pid=CORE-WBST</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>Caldwell Community College and Technical Institute</t>
-  </si>
-  <si>
-    <t>https://webadvisor.cccti.edu/WebAdvisor/WebAdvisor?TOKENIDX=1828158306&amp;type=M&amp;constituency=WBAP&amp;pid=CORE-WBAP</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Cape Fear Community College</t>
-  </si>
-  <si>
-    <t>https://reg.cfcc.edu/WebAdvisor/WebAdvisor?TOKENIDX=3729225402&amp;type=M&amp;constituency=WBST&amp;pid=CORE-WBST</t>
-  </si>
-  <si>
-    <t>WWW</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>Central Carolina Community College</t>
-  </si>
-  <si>
-    <t>https://webadvisor.cccc.edu/WebAdvisor/WebAdvisor?TOKENIDX=4782923678&amp;type=M&amp;constituency=WBAP&amp;pid=CORE-WBAP</t>
-  </si>
-  <si>
-    <t>DIST</t>
-  </si>
-  <si>
-    <t>Cleveland Community College</t>
-  </si>
-  <si>
-    <t>https://webadvisor.clevelandcc.edu/WebAdvisor/WebAdvisor?TOKENIDX=5232704816&amp;type=M&amp;constituency=WBAP&amp;pid=CORE-WBAP</t>
-  </si>
-  <si>
-    <t>OC</t>
-  </si>
-  <si>
-    <t>Coastal Carolina Community College</t>
-  </si>
-  <si>
-    <t>https://webadvisor.coastal.edu/WebAdvisor/WebAdvisor?TOKENIDX=27416195&amp;type=M&amp;constituency=XWBST&amp;pid=CORE-XWBST</t>
-  </si>
-  <si>
-    <t>different options like "in-class with streaming"</t>
-  </si>
-  <si>
-    <t>DL</t>
-  </si>
-  <si>
-    <t>3rd td</t>
-  </si>
-  <si>
-    <t>College of the Albemarle</t>
-  </si>
-  <si>
-    <t>https://mywebadvisor.albemarle.edu/WebAdvisor/WebAdvisor?TOKENIDX=8077699295&amp;type=M&amp;constituency=WBAP&amp;pid=CORE-WBAP</t>
-  </si>
-  <si>
-    <t>No location option for online</t>
-  </si>
-  <si>
-    <t>Craven Community College</t>
-  </si>
-  <si>
-    <t>https://webadv-prod.cloud.cravencc.edu/WebAdvisor/WebAdvisor?TOKENIDX=7786195007&amp;type=M&amp;constituency=WBAP&amp;pid=CORE-WBAP</t>
-  </si>
-  <si>
-    <t>Davidson County Community College</t>
-  </si>
-  <si>
-    <t>https://wa.davidsonccc.edu/WebAdvisor/WebAdvisor?TOKENIDX=2125393435&amp;type=M&amp;constituency=WBAP&amp;pid=CORE-WBAP</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>Durham Technical Community College</t>
-  </si>
-  <si>
-    <t>https://webadvisor.durhamtech.edu/WebAdvisor/WebAdvisor?TOKENIDX=3263068204&amp;type=M&amp;constituency=WBAP&amp;pid=CORE-WBAP</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>Edgecombe Community College</t>
-  </si>
-  <si>
-    <t>https://wa.edgecombe.edu/WebAdvisor/WebAdvisor?TOKENIDX=1102268694&amp;type=M&amp;constituency=WBAP&amp;pid=CORE-WBAP</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Gaston College</t>
-  </si>
-  <si>
-    <t>https://webadvw.gaston.edu/WebAdvisor/WebAdvisor?TOKENIDX=6620864838&amp;type=M&amp;constituency=WBST&amp;pid=CORE-WBST</t>
-  </si>
-  <si>
-    <t>may have to select 2 location options to get online (sync and async) - use VIRT for async</t>
-  </si>
-  <si>
-    <t>Guilford Technical Community College</t>
-  </si>
-  <si>
-    <t>https://webadvisor.gtcc.edu/</t>
-  </si>
-  <si>
-    <t>**** seems to be down, may have to parse pdf</t>
-  </si>
-  <si>
-    <t>Johnston Community College</t>
-  </si>
-  <si>
-    <t>https://webadvisor.johnstoncc.edu/WebAdvisor/WebAdvisor?TOKENIDX=2374134113&amp;type=M&amp;constituency=WBAP&amp;pid=CORE-WBAP</t>
-  </si>
-  <si>
-    <t>sync and async together</t>
-  </si>
-  <si>
-    <t>Lenoir Community College</t>
-  </si>
-  <si>
-    <t>https://wa.lenoircc.edu/WebAdvisor/WebAdvisor?TOKENIDX=2084978637&amp;type=M&amp;constituency=WBAP&amp;pid=CORE-WBAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No online courses when filtering? </t>
-  </si>
-  <si>
-    <t>Nash Community College</t>
-  </si>
-  <si>
-    <t>https://nccwebadvisor.ad.nashcc.edu/WebAdvisor/WebAdvisor?TOKENIDX=3017553092&amp;type=M&amp;constituency=WBAP&amp;pid=CORE-WBAP</t>
-  </si>
-  <si>
-    <t>sync and async seem to be separated</t>
-  </si>
-  <si>
-    <t>ONLIN and VTL</t>
-  </si>
-  <si>
-    <t>Pamlico Community College</t>
-  </si>
-  <si>
-    <t>https://webadvisor.pamlicocc.edu/WA/WebAdvisor?TOKENIDX=7418765327&amp;type=M&amp;constituency=WBAP&amp;pid=CORE-WBAP</t>
-  </si>
-  <si>
-    <t>no fall schedule</t>
-  </si>
-  <si>
-    <t>Sandhills Community College</t>
-  </si>
-  <si>
-    <t>https://webadvisor.sandhills.edu/WebAdvisor/WebAdvisor?TOKENIDX=4865650381&amp;type=M&amp;constituency=WBAP&amp;pid=CORE-WBAP</t>
-  </si>
-  <si>
-    <t>Wake Technical Community College</t>
-  </si>
-  <si>
-    <t>https://webadvisor.waketech.edu/</t>
-  </si>
-  <si>
-    <t>**** 517 courses and more sections to extract, may require intervention</t>
-  </si>
-  <si>
-    <t>button</t>
-  </si>
-  <si>
-    <t>Wayne Community College</t>
-  </si>
-  <si>
-    <t>https://wow.waynecc.edu/WebAdvisor/WebAdvisor?TOKENIDX=3640761354&amp;type=M&amp;constituency=WBAP&amp;pid=CORE-WBAP</t>
-  </si>
-  <si>
-    <t>ADDITIONAL NOTES:</t>
-  </si>
-  <si>
-    <t>some schools group online classes with "Off Campus" locations so this will have to be accounted for when parsing html source files</t>
-  </si>
-  <si>
-    <t>Missing GUILFORD</t>
-  </si>
-  <si>
-    <t>51 pages; ssl error?</t>
+    <t>no 2020FA; different options like "in-class with streaming"</t>
+  </si>
+  <si>
+    <t>No "CU"; No location option for online</t>
+  </si>
+  <si>
+    <t>need to select another option (no CU); sync and async together</t>
+  </si>
+  <si>
+    <t>total pages error; sync and async seem to be separated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No "CU"; No online courses when filtering? </t>
+  </si>
+  <si>
+    <t>No "CU";no fall schedule</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +275,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -346,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -360,38 +369,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
+      <alignment horizontal="fill" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -427,19 +420,47 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
-        <top style="thin">
+        <right style="thin">
           <color auto="1"/>
-        </top>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -456,16 +477,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5771E83-7ABE-4C25-8C96-5A8A154C162E}" name="Table1" displayName="Table1" ref="A1:G22" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
-  <autoFilter ref="A1:G22" xr:uid="{A5AA2732-62AC-4528-B3FD-A332876B8EB7}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5771E83-7ABE-4C25-8C96-5A8A154C162E}" name="Table1" displayName="Table1" ref="A1:H22" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:H22" xr:uid="{A5AA2732-62AC-4528-B3FD-A332876B8EB7}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5B8FDE20-A2D5-4986-8F27-911A76B1421D}" name="School" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{5CB3C461-9975-413A-9B73-F2C842D0B85E}" name="wa_url"/>
+    <tableColumn id="2" xr3:uid="{5CB3C461-9975-413A-9B73-F2C842D0B85E}" name="wa_url" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{DD342FFE-E102-4282-AFC6-2A4C08D713E8}" name="scrape_complete"/>
     <tableColumn id="4" xr3:uid="{C1CD6B24-F6E3-4337-9C07-2776712FFA65}" name="notes"/>
     <tableColumn id="5" xr3:uid="{E055B1B9-6855-43E5-B5C2-8627FA964A4C}" name="loc_value"/>
     <tableColumn id="6" xr3:uid="{E0378A2C-53A4-4F66-B3AF-E5EB91DA188A}" name="next_btn"/>
     <tableColumn id="7" xr3:uid="{66869BB5-BD40-41C9-B1A3-EC741C9CF8A3}" name="input"/>
+    <tableColumn id="9" xr3:uid="{9F5B4491-D0B2-4F49-9CCF-B50306534185}" name="error"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -756,27 +778,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="65.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="7" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -794,353 +816,380 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" t="s">
-        <v>64</v>
+        <v>57</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" t="s">
-        <v>67</v>
+        <v>59</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" t="s">
-        <v>73</v>
+        <v>65</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1154,20 +1203,20 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" t="s">
-        <v>74</v>
+      <c r="B26" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" t="s">
-        <v>75</v>
+      <c r="B27" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" t="s">
-        <v>76</v>
+      <c r="B28" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
